--- a/DocumentosNB05/Estadistica.xlsx
+++ b/DocumentosNB05/Estadistica.xlsx
@@ -5,18 +5,21 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\Colab Notebooks\CompetenciaSENA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\APEREZN2023\01-Formacion\02SegundoTrimestre2023\MachineLearning - 2472365 - ADSO\05-MaterialEducativo\CienciaDatosSENA\DocumentosNB05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BD48C39-1799-47DC-AFD9-33C2A9F6F705}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB3E2D-92FA-4441-BD3D-1AFA054062EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuantitativos_Discretos" sheetId="2" r:id="rId1"/>
     <sheet name="Cuantitativos_Continuos" sheetId="3" r:id="rId2"/>
     <sheet name="Cualitativos" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cuantitativos_Discretos!$A$1:$A$51</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -406,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C94D23D-AB95-4893-B097-4F1C02A298E5}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -669,6 +672,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A51" xr:uid="{5C94D23D-AB95-4893-B097-4F1C02A298E5}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
@@ -678,7 +682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4642C46-0D01-4294-B4BB-C1E78507FF4D}">
   <dimension ref="A1:C51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>

--- a/DocumentosNB05/Estadistica.xlsx
+++ b/DocumentosNB05/Estadistica.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Mi unidad\APEREZN2023\01-Formacion\02SegundoTrimestre2023\MachineLearning - 2472365 - ADSO\05-MaterialEducativo\CienciaDatosSENA\DocumentosNB05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EACB3E2D-92FA-4441-BD3D-1AFA054062EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A1B522B-ED51-4530-B58C-54887FD69F04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cuantitativos_Discretos" sheetId="2" r:id="rId1"/>
@@ -409,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C94D23D-AB95-4893-B097-4F1C02A298E5}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -965,9 +965,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EB8BED1-5E02-4EF1-AE56-4AFF2C57D2C5}">
   <dimension ref="A1:A51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
